--- a/mercados/us_core_pce.xlsx
+++ b/mercados/us_core_pce.xlsx
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E127"/>
+  <dimension ref="A1:E128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2473,10 +2473,10 @@
         <v>44652</v>
       </c>
       <c r="D125">
-        <v>121.796</v>
+        <v>121.794</v>
       </c>
       <c r="E125">
-        <v>0.04906115417743329</v>
+        <v>0.04904392764857879</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2490,10 +2490,10 @@
         <v>44682</v>
       </c>
       <c r="D126">
-        <v>122.221</v>
+        <v>122.226</v>
       </c>
       <c r="E126">
-        <v>0.04671736635664492</v>
+        <v>0.04676018704074814</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2507,10 +2507,27 @@
         <v>44713</v>
       </c>
       <c r="D127">
-        <v>122.948</v>
+        <v>122.97</v>
       </c>
       <c r="E127">
-        <v>0.0479088359883062</v>
+        <v>0.04809634610959113</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>762</v>
+      </c>
+      <c r="C128" s="2">
+        <v>44743</v>
+      </c>
+      <c r="D128">
+        <v>123.074</v>
+      </c>
+      <c r="E128">
+        <v>0.04562291850744238</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/us_core_pce.xlsx
+++ b/mercados/us_core_pce.xlsx
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E128"/>
+  <dimension ref="A1:E129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1402,10 +1402,10 @@
         <v>42736</v>
       </c>
       <c r="D62">
-        <v>107.204</v>
+        <v>107.205</v>
       </c>
       <c r="E62">
-        <v>0.01901068400441042</v>
+        <v>0.01902018934641281</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1419,10 +1419,10 @@
         <v>42767</v>
       </c>
       <c r="D63">
-        <v>107.357</v>
+        <v>107.414</v>
       </c>
       <c r="E63">
-        <v>0.01886702920213734</v>
+        <v>0.01940798527081022</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1436,10 +1436,10 @@
         <v>42795</v>
       </c>
       <c r="D64">
-        <v>107.307</v>
+        <v>107.364</v>
       </c>
       <c r="E64">
-        <v>0.0169255408875959</v>
+        <v>0.01746571772443395</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1453,10 +1453,10 @@
         <v>42826</v>
       </c>
       <c r="D65">
-        <v>107.587</v>
+        <v>107.62</v>
       </c>
       <c r="E65">
-        <v>0.01702493713723929</v>
+        <v>0.01733688767889885</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1470,10 +1470,10 @@
         <v>42856</v>
       </c>
       <c r="D66">
-        <v>107.699</v>
+        <v>107.719</v>
       </c>
       <c r="E66">
-        <v>0.01652697549741378</v>
+        <v>0.01671574734775549</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1504,10 +1504,10 @@
         <v>42917</v>
       </c>
       <c r="D68">
-        <v>107.944</v>
+        <v>107.941</v>
       </c>
       <c r="E68">
-        <v>0.01587660107098832</v>
+        <v>0.01584836763695563</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1521,10 +1521,10 @@
         <v>42948</v>
       </c>
       <c r="D69">
-        <v>108.058</v>
+        <v>108.074</v>
       </c>
       <c r="E69">
-        <v>0.01504847072969118</v>
+        <v>0.01519876756594263</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1538,10 +1538,10 @@
         <v>42979</v>
       </c>
       <c r="D70">
-        <v>108.267</v>
+        <v>108.215</v>
       </c>
       <c r="E70">
-        <v>0.0158380168701151</v>
+        <v>0.01535011587648616</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1555,10 +1555,10 @@
         <v>43009</v>
       </c>
       <c r="D71">
-        <v>108.546</v>
+        <v>108.499</v>
       </c>
       <c r="E71">
-        <v>0.01694819978076967</v>
+        <v>0.01650786512643232</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1572,10 +1572,10 @@
         <v>43040</v>
       </c>
       <c r="D72">
-        <v>108.601</v>
+        <v>108.582</v>
       </c>
       <c r="E72">
-        <v>0.01696803977937811</v>
+        <v>0.01679011883246395</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1589,10 +1589,10 @@
         <v>43070</v>
       </c>
       <c r="D73">
-        <v>108.769</v>
+        <v>108.742</v>
       </c>
       <c r="E73">
-        <v>0.01720767986233862</v>
+        <v>0.01695517586435868</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1606,10 +1606,10 @@
         <v>43101</v>
       </c>
       <c r="D74">
-        <v>109.06</v>
+        <v>109.08</v>
       </c>
       <c r="E74">
-        <v>0.0173127868363121</v>
+        <v>0.01748985588358742</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1623,10 +1623,10 @@
         <v>43132</v>
       </c>
       <c r="D75">
-        <v>109.273</v>
+        <v>109.311</v>
       </c>
       <c r="E75">
-        <v>0.01784699646972254</v>
+        <v>0.017660640140019</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1640,10 +1640,10 @@
         <v>43160</v>
       </c>
       <c r="D76">
-        <v>109.542</v>
+        <v>109.562</v>
       </c>
       <c r="E76">
-        <v>0.02082809136403041</v>
+        <v>0.02047241160910551</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1657,10 +1657,10 @@
         <v>43191</v>
       </c>
       <c r="D77">
-        <v>109.752</v>
+        <v>109.75</v>
       </c>
       <c r="E77">
-        <v>0.02012324909143293</v>
+        <v>0.01979186024902435</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1674,10 +1674,10 @@
         <v>43221</v>
       </c>
       <c r="D78">
-        <v>109.969</v>
+        <v>109.956</v>
       </c>
       <c r="E78">
-        <v>0.02107726162731316</v>
+        <v>0.02076699560894557</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1691,10 +1691,10 @@
         <v>43252</v>
       </c>
       <c r="D79">
-        <v>110.106</v>
+        <v>110.073</v>
       </c>
       <c r="E79">
-        <v>0.02067188253179575</v>
+        <v>0.02036597574993504</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1708,10 +1708,10 @@
         <v>43282</v>
       </c>
       <c r="D80">
-        <v>110.238</v>
+        <v>110.219</v>
       </c>
       <c r="E80">
-        <v>0.02125176017194108</v>
+        <v>0.02110412169611164</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1725,10 +1725,10 @@
         <v>43313</v>
       </c>
       <c r="D81">
-        <v>110.247</v>
+        <v>110.246</v>
       </c>
       <c r="E81">
-        <v>0.02025763941586911</v>
+        <v>0.02009734071099434</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1742,10 +1742,10 @@
         <v>43344</v>
       </c>
       <c r="D82">
-        <v>110.475</v>
+        <v>110.476</v>
       </c>
       <c r="E82">
-        <v>0.02039402588046224</v>
+        <v>0.02089359146144254</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1759,10 +1759,10 @@
         <v>43374</v>
       </c>
       <c r="D83">
-        <v>110.641</v>
+        <v>110.626</v>
       </c>
       <c r="E83">
-        <v>0.01930057302894617</v>
+        <v>0.01960386731674957</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1776,10 +1776,10 @@
         <v>43405</v>
       </c>
       <c r="D84">
-        <v>110.838</v>
+        <v>110.831</v>
       </c>
       <c r="E84">
-        <v>0.0205983370318874</v>
+        <v>0.02071245694498169</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1793,10 +1793,10 @@
         <v>43435</v>
       </c>
       <c r="D85">
-        <v>111.006</v>
+        <v>111.009</v>
       </c>
       <c r="E85">
-        <v>0.02056652171114925</v>
+        <v>0.02084751062147094</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1810,10 +1810,10 @@
         <v>43466</v>
       </c>
       <c r="D86">
-        <v>111.06</v>
+        <v>111.134</v>
       </c>
       <c r="E86">
-        <v>0.01833852924995405</v>
+        <v>0.01883021635496895</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1827,10 +1827,10 @@
         <v>43497</v>
       </c>
       <c r="D87">
-        <v>111.096</v>
+        <v>111.207</v>
       </c>
       <c r="E87">
-        <v>0.01668298664811996</v>
+        <v>0.017345006449488</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1844,10 +1844,10 @@
         <v>43525</v>
       </c>
       <c r="D88">
-        <v>111.254</v>
+        <v>111.35</v>
       </c>
       <c r="E88">
-        <v>0.01562870862317656</v>
+        <v>0.01631952684324856</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1861,10 +1861,10 @@
         <v>43556</v>
       </c>
       <c r="D89">
-        <v>111.607</v>
+        <v>111.65</v>
       </c>
       <c r="E89">
-        <v>0.01690174210948325</v>
+        <v>0.01731207289293857</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1878,10 +1878,10 @@
         <v>43586</v>
       </c>
       <c r="D90">
-        <v>111.744</v>
+        <v>111.773</v>
       </c>
       <c r="E90">
-        <v>0.01614091243896021</v>
+        <v>0.01652479173487564</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -1895,10 +1895,10 @@
         <v>43617</v>
       </c>
       <c r="D91">
-        <v>111.997</v>
+        <v>112</v>
       </c>
       <c r="E91">
-        <v>0.01717435925381006</v>
+        <v>0.01750656382582472</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -1912,10 +1912,10 @@
         <v>43647</v>
       </c>
       <c r="D92">
-        <v>112.15</v>
+        <v>112.157</v>
       </c>
       <c r="E92">
-        <v>0.01734429144215244</v>
+        <v>0.01758317531460096</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -1929,10 +1929,10 @@
         <v>43678</v>
       </c>
       <c r="D93">
-        <v>112.289</v>
+        <v>112.27</v>
       </c>
       <c r="E93">
-        <v>0.01852204595136375</v>
+        <v>0.01835894272808081</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -1946,10 +1946,10 @@
         <v>43709</v>
       </c>
       <c r="D94">
-        <v>112.367</v>
+        <v>112.339</v>
       </c>
       <c r="E94">
-        <v>0.01712604661688166</v>
+        <v>0.01686339114377788</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -1963,10 +1963,10 @@
         <v>43739</v>
       </c>
       <c r="D95">
-        <v>112.54</v>
+        <v>112.496</v>
       </c>
       <c r="E95">
-        <v>0.01716361927314458</v>
+        <v>0.01690380199952979</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -1980,10 +1980,10 @@
         <v>43770</v>
       </c>
       <c r="D96">
-        <v>112.576</v>
+        <v>112.524</v>
       </c>
       <c r="E96">
-        <v>0.01568054277413888</v>
+        <v>0.01527550955959978</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -1997,10 +1997,10 @@
         <v>43800</v>
       </c>
       <c r="D97">
-        <v>112.824</v>
+        <v>112.772</v>
       </c>
       <c r="E97">
-        <v>0.01637749310848058</v>
+        <v>0.01588159518597587</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2014,10 +2014,10 @@
         <v>43831</v>
       </c>
       <c r="D98">
-        <v>113.04</v>
+        <v>113.008</v>
       </c>
       <c r="E98">
-        <v>0.01782820097244731</v>
+        <v>0.01686252631957808</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2031,10 +2031,10 @@
         <v>43862</v>
       </c>
       <c r="D99">
-        <v>113.215</v>
+        <v>113.206</v>
       </c>
       <c r="E99">
-        <v>0.01907359400878517</v>
+        <v>0.01797548715458563</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2048,10 +2048,10 @@
         <v>43891</v>
       </c>
       <c r="D100">
-        <v>113.15</v>
+        <v>113.143</v>
       </c>
       <c r="E100">
-        <v>0.01704208388013018</v>
+        <v>0.01610237988325114</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2065,10 +2065,10 @@
         <v>43922</v>
       </c>
       <c r="D101">
-        <v>112.628</v>
+        <v>112.668</v>
       </c>
       <c r="E101">
-        <v>0.009148171709659758</v>
+        <v>0.009117778772951279</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2082,10 +2082,10 @@
         <v>43952</v>
       </c>
       <c r="D102">
-        <v>112.864</v>
+        <v>112.819</v>
       </c>
       <c r="E102">
-        <v>0.01002290950744555</v>
+        <v>0.009358252887548879</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2099,10 +2099,10 @@
         <v>43983</v>
       </c>
       <c r="D103">
-        <v>113.265</v>
+        <v>113.051</v>
       </c>
       <c r="E103">
-        <v>0.01132173183210261</v>
+        <v>0.009383928571428557</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2116,10 +2116,10 @@
         <v>44013</v>
       </c>
       <c r="D104">
-        <v>113.61</v>
+        <v>113.425</v>
       </c>
       <c r="E104">
-        <v>0.01301827909050379</v>
+        <v>0.01130558057009368</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2133,10 +2133,10 @@
         <v>44044</v>
       </c>
       <c r="D105">
-        <v>113.971</v>
+        <v>113.782</v>
       </c>
       <c r="E105">
-        <v>0.01497920544309772</v>
+        <v>0.01346753362429864</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2150,10 +2150,10 @@
         <v>44075</v>
       </c>
       <c r="D106">
-        <v>114.131</v>
+        <v>113.979</v>
       </c>
       <c r="E106">
-        <v>0.01569855918552587</v>
+        <v>0.01459867009676064</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2167,10 +2167,10 @@
         <v>44105</v>
       </c>
       <c r="D107">
-        <v>114.137</v>
+        <v>114.017</v>
       </c>
       <c r="E107">
-        <v>0.01419051004087435</v>
+        <v>0.01352048072820367</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2184,10 +2184,10 @@
         <v>44136</v>
       </c>
       <c r="D108">
-        <v>114.134</v>
+        <v>114.048</v>
       </c>
       <c r="E108">
-        <v>0.01383953951108596</v>
+        <v>0.01354377732750356</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2201,10 +2201,10 @@
         <v>44166</v>
       </c>
       <c r="D109">
-        <v>114.494</v>
+        <v>114.422</v>
       </c>
       <c r="E109">
-        <v>0.0148018152166205</v>
+        <v>0.01463129145532571</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2218,10 +2218,10 @@
         <v>44197</v>
       </c>
       <c r="D110">
-        <v>114.746</v>
+        <v>114.782</v>
       </c>
       <c r="E110">
-        <v>0.01509200283085632</v>
+        <v>0.01569800368115537</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2235,10 +2235,10 @@
         <v>44228</v>
       </c>
       <c r="D111">
-        <v>114.899</v>
+        <v>114.975</v>
       </c>
       <c r="E111">
-        <v>0.01487435410502136</v>
+        <v>0.01562638022719631</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2252,10 +2252,10 @@
         <v>44256</v>
       </c>
       <c r="D112">
-        <v>115.383</v>
+        <v>115.457</v>
       </c>
       <c r="E112">
-        <v>0.01973486522315504</v>
+        <v>0.02045199437879486</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2269,10 +2269,10 @@
         <v>44287</v>
       </c>
       <c r="D113">
-        <v>116.1</v>
+        <v>116.186</v>
       </c>
       <c r="E113">
-        <v>0.03082714777852757</v>
+        <v>0.03122448255050236</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2286,10 +2286,10 @@
         <v>44317</v>
       </c>
       <c r="D114">
-        <v>116.766</v>
+        <v>116.787</v>
       </c>
       <c r="E114">
-        <v>0.03457258293167009</v>
+        <v>0.03517138070715031</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2303,10 +2303,10 @@
         <v>44348</v>
       </c>
       <c r="D115">
-        <v>117.327</v>
+        <v>117.349</v>
       </c>
       <c r="E115">
-        <v>0.03586279962918826</v>
+        <v>0.0380182395555988</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2320,10 +2320,10 @@
         <v>44378</v>
       </c>
       <c r="D116">
-        <v>117.704</v>
+        <v>117.811</v>
       </c>
       <c r="E116">
-        <v>0.036035560249978</v>
+        <v>0.03866872382631703</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2337,10 +2337,10 @@
         <v>44409</v>
       </c>
       <c r="D117">
-        <v>118.073</v>
+        <v>118.199</v>
       </c>
       <c r="E117">
-        <v>0.03599161190127309</v>
+        <v>0.03881984848218534</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2354,10 +2354,10 @@
         <v>44440</v>
       </c>
       <c r="D118">
-        <v>118.357</v>
+        <v>118.446</v>
       </c>
       <c r="E118">
-        <v>0.0370276261488991</v>
+        <v>0.03919143000026315</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2371,10 +2371,10 @@
         <v>44470</v>
       </c>
       <c r="D119">
-        <v>118.915</v>
+        <v>118.929</v>
       </c>
       <c r="E119">
-        <v>0.04186197289222604</v>
+        <v>0.04308129489462109</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2388,10 +2388,10 @@
         <v>44501</v>
       </c>
       <c r="D120">
-        <v>119.483</v>
+        <v>119.543</v>
       </c>
       <c r="E120">
-        <v>0.0468659645679641</v>
+        <v>0.0481814674523009</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2405,10 +2405,10 @@
         <v>44531</v>
       </c>
       <c r="D121">
-        <v>120.092</v>
+        <v>120.193</v>
       </c>
       <c r="E121">
-        <v>0.04889339179345642</v>
+        <v>0.05043610494485318</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2422,10 +2422,10 @@
         <v>44562</v>
       </c>
       <c r="D122">
-        <v>120.636</v>
+        <v>120.761</v>
       </c>
       <c r="E122">
-        <v>0.05133076534258274</v>
+        <v>0.05209004896238079</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2439,10 +2439,10 @@
         <v>44593</v>
       </c>
       <c r="D123">
-        <v>121.002</v>
+        <v>121.205</v>
       </c>
       <c r="E123">
-        <v>0.05311621511066233</v>
+        <v>0.0541856925418569</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2456,10 +2456,10 @@
         <v>44621</v>
       </c>
       <c r="D124">
-        <v>121.408</v>
+        <v>121.651</v>
       </c>
       <c r="E124">
-        <v>0.0522173977102347</v>
+        <v>0.05364767835644435</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2473,10 +2473,10 @@
         <v>44652</v>
       </c>
       <c r="D125">
-        <v>121.794</v>
+        <v>122.03</v>
       </c>
       <c r="E125">
-        <v>0.04904392764857879</v>
+        <v>0.05029865904670094</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2490,10 +2490,10 @@
         <v>44682</v>
       </c>
       <c r="D126">
-        <v>122.226</v>
+        <v>122.488</v>
       </c>
       <c r="E126">
-        <v>0.04676018704074814</v>
+        <v>0.04881536472381343</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2507,10 +2507,10 @@
         <v>44713</v>
       </c>
       <c r="D127">
-        <v>122.97</v>
+        <v>123.258</v>
       </c>
       <c r="E127">
-        <v>0.04809634610959113</v>
+        <v>0.05035407204151721</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2524,10 +2524,27 @@
         <v>44743</v>
       </c>
       <c r="D128">
-        <v>123.074</v>
+        <v>123.311</v>
       </c>
       <c r="E128">
-        <v>0.04562291850744238</v>
+        <v>0.04668494452979766</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>763</v>
+      </c>
+      <c r="C129" s="2">
+        <v>44774</v>
+      </c>
+      <c r="D129">
+        <v>124.004</v>
+      </c>
+      <c r="E129">
+        <v>0.04911209062682431</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/us_core_pce.xlsx
+++ b/mercados/us_core_pce.xlsx
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E129"/>
+  <dimension ref="A1:E130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2524,10 +2524,10 @@
         <v>44743</v>
       </c>
       <c r="D128">
-        <v>123.311</v>
+        <v>123.316</v>
       </c>
       <c r="E128">
-        <v>0.04668494452979766</v>
+        <v>0.04672738538846111</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2541,10 +2541,27 @@
         <v>44774</v>
       </c>
       <c r="D129">
-        <v>124.004</v>
+        <v>123.983</v>
       </c>
       <c r="E129">
-        <v>0.04911209062682431</v>
+        <v>0.04893442414910454</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>764</v>
+      </c>
+      <c r="C130" s="2">
+        <v>44805</v>
+      </c>
+      <c r="D130">
+        <v>124.542</v>
+      </c>
+      <c r="E130">
+        <v>0.05146649105921686</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/us_core_pce.xlsx
+++ b/mercados/us_core_pce.xlsx
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E130"/>
+  <dimension ref="A1:E131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2524,10 +2524,10 @@
         <v>44743</v>
       </c>
       <c r="D128">
-        <v>123.316</v>
+        <v>123.338</v>
       </c>
       <c r="E128">
-        <v>0.04672738538846111</v>
+        <v>0.04691412516658033</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2541,10 +2541,10 @@
         <v>44774</v>
       </c>
       <c r="D129">
-        <v>123.983</v>
+        <v>124.01</v>
       </c>
       <c r="E129">
-        <v>0.04893442414910454</v>
+        <v>0.04916285247760133</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2558,10 +2558,27 @@
         <v>44805</v>
       </c>
       <c r="D130">
-        <v>124.542</v>
+        <v>124.584</v>
       </c>
       <c r="E130">
-        <v>0.05146649105921686</v>
+        <v>0.05182108302517618</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>765</v>
+      </c>
+      <c r="C131" s="2">
+        <v>44835</v>
+      </c>
+      <c r="D131">
+        <v>124.857</v>
+      </c>
+      <c r="E131">
+        <v>0.04984486542390831</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/us_core_pce.xlsx
+++ b/mercados/us_core_pce.xlsx
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E131"/>
+  <dimension ref="A1:E132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2524,10 +2524,10 @@
         <v>44743</v>
       </c>
       <c r="D128">
-        <v>123.338</v>
+        <v>123.352</v>
       </c>
       <c r="E128">
-        <v>0.04691412516658033</v>
+        <v>0.04703295957083808</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2541,10 +2541,10 @@
         <v>44774</v>
       </c>
       <c r="D129">
-        <v>124.01</v>
+        <v>124.031</v>
       </c>
       <c r="E129">
-        <v>0.04916285247760133</v>
+        <v>0.0493405189553211</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2558,10 +2558,10 @@
         <v>44805</v>
       </c>
       <c r="D130">
-        <v>124.584</v>
+        <v>124.607</v>
       </c>
       <c r="E130">
-        <v>0.05182108302517618</v>
+        <v>0.05201526433986792</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2575,10 +2575,27 @@
         <v>44835</v>
       </c>
       <c r="D131">
-        <v>124.857</v>
+        <v>124.933</v>
       </c>
       <c r="E131">
-        <v>0.04984486542390831</v>
+        <v>0.05048390216011245</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>766</v>
+      </c>
+      <c r="C132" s="2">
+        <v>44866</v>
+      </c>
+      <c r="D132">
+        <v>125.143</v>
+      </c>
+      <c r="E132">
+        <v>0.04684506830178248</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/us_core_pce.xlsx
+++ b/mercados/us_core_pce.xlsx
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E132"/>
+  <dimension ref="A1:E135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2575,10 +2575,10 @@
         <v>44835</v>
       </c>
       <c r="D131">
-        <v>124.933</v>
+        <v>124.998</v>
       </c>
       <c r="E131">
-        <v>0.05048390216011245</v>
+        <v>0.05103044673712898</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2592,10 +2592,61 @@
         <v>44866</v>
       </c>
       <c r="D132">
-        <v>125.143</v>
+        <v>125.277</v>
       </c>
       <c r="E132">
-        <v>0.04684506830178248</v>
+        <v>0.04796600386471805</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>767</v>
+      </c>
+      <c r="C133" s="2">
+        <v>44896</v>
+      </c>
+      <c r="D133">
+        <v>125.746</v>
+      </c>
+      <c r="E133">
+        <v>0.04620069388400316</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>768</v>
+      </c>
+      <c r="C134" s="2">
+        <v>44927</v>
+      </c>
+      <c r="D134">
+        <v>126.398</v>
+      </c>
+      <c r="E134">
+        <v>0.04667897748445271</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>769</v>
+      </c>
+      <c r="C135" s="2">
+        <v>44958</v>
+      </c>
+      <c r="D135">
+        <v>126.777</v>
+      </c>
+      <c r="E135">
+        <v>0.0459717008374243</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/us_core_pce.xlsx
+++ b/mercados/us_core_pce.xlsx
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E135"/>
+  <dimension ref="A1:E138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2626,10 +2626,10 @@
         <v>44927</v>
       </c>
       <c r="D134">
-        <v>126.398</v>
+        <v>126.422</v>
       </c>
       <c r="E134">
-        <v>0.04667897748445271</v>
+        <v>0.04687771714377997</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2643,10 +2643,61 @@
         <v>44958</v>
       </c>
       <c r="D135">
-        <v>126.777</v>
+        <v>126.847</v>
       </c>
       <c r="E135">
-        <v>0.0459717008374243</v>
+        <v>0.04654923476754247</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>770</v>
+      </c>
+      <c r="C136" s="2">
+        <v>44986</v>
+      </c>
+      <c r="D136">
+        <v>127.257</v>
+      </c>
+      <c r="E136">
+        <v>0.04608264625855929</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>771</v>
+      </c>
+      <c r="C137" s="2">
+        <v>45017</v>
+      </c>
+      <c r="D137">
+        <v>127.74</v>
+      </c>
+      <c r="E137">
+        <v>0.04679177251495537</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>772</v>
+      </c>
+      <c r="C138" s="2">
+        <v>45047</v>
+      </c>
+      <c r="D138">
+        <v>128.142</v>
+      </c>
+      <c r="E138">
+        <v>0.04615962379988248</v>
       </c>
     </row>
   </sheetData>
